--- a/Logboek/gip-6ict_logboek.xlsx
+++ b/Logboek/gip-6ict_logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Docs\gip\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{032122D2-BE67-41AE-92BF-9F98C5E53394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5EFAAEE5-E320-49FE-8A71-ADABF5D927B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1FE05-0DCA-4660-8167-0BE5222CBEB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B437F42-BA06-4545-8EB1-8257DDDC5F9E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Logboek" sheetId="1" r:id="rId1"/>
     <sheet name="Droplists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -175,7 +175,22 @@
     <t xml:space="preserve">gipbundel over motor en buck converter schrijven </t>
   </si>
   <si>
-    <t>ledsrtip testen</t>
+    <t>ledstrip testen(werkte niet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gipbundel micro controller motor start git </t>
+  </si>
+  <si>
+    <t>2de test zonder aansluiting te veranderen wert niet</t>
+  </si>
+  <si>
+    <t>Usb aansluiting bijmaken aan ledstrip en nameten</t>
+  </si>
+  <si>
+    <t>Ledstrip gaat aan maar krijgt willekeurige kleuren tijsens meten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vorige is door dan de massa niet goed is aangesloten. </t>
   </si>
   <si>
     <t>Data</t>
@@ -203,13 +218,22 @@
   </si>
   <si>
     <t>Samen</t>
+  </si>
+  <si>
+    <t>tekst ledstrip en cirkel nalezen</t>
+  </si>
+  <si>
+    <t>opmaak beetje aanpassen gipbundel</t>
+  </si>
+  <si>
+    <t>Reedcontact testen met multimeter (is bruikbaar denk ik)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,13 +617,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B99AB-9A2E-42E2-8276-0626A26B03E7}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
@@ -607,7 +631,7 @@
     <col min="4" max="4" width="75.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,12 +645,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44095</v>
       </c>
@@ -640,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44097</v>
       </c>
@@ -654,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44105</v>
       </c>
@@ -668,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44112</v>
       </c>
@@ -682,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44116</v>
       </c>
@@ -696,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44118</v>
       </c>
@@ -710,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44121</v>
       </c>
@@ -724,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44125</v>
       </c>
@@ -738,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44127</v>
       </c>
@@ -752,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44127</v>
       </c>
@@ -766,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44128</v>
       </c>
@@ -780,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44130</v>
       </c>
@@ -794,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44151</v>
       </c>
@@ -808,7 +832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44152</v>
       </c>
@@ -822,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44153</v>
       </c>
@@ -836,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44154</v>
       </c>
@@ -850,7 +874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44158</v>
       </c>
@@ -864,7 +888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44160</v>
       </c>
@@ -878,7 +902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44149</v>
       </c>
@@ -892,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44149</v>
       </c>
@@ -906,7 +930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44149</v>
       </c>
@@ -920,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44150</v>
       </c>
@@ -934,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44150</v>
       </c>
@@ -948,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44150</v>
       </c>
@@ -962,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44156</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44157</v>
       </c>
@@ -990,7 +1014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44157</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44158</v>
       </c>
@@ -1018,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44159</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44160</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>44160</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>44162</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>44193</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>44195</v>
       </c>
@@ -1102,7 +1126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44237</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>44238</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>44244</v>
       </c>
@@ -1144,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>44258</v>
       </c>
@@ -1158,7 +1182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>44259</v>
       </c>
@@ -1170,6 +1194,134 @@
       </c>
       <c r="D41" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>44260</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>44262</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44264</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44264</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>44266</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>44266</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44270</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1210,14 +1362,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1225,21 +1377,21 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5">
         <v>44075</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1250,1536 +1402,1536 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5">
         <v>44077</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5">
         <v>44078</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>44079</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5">
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5">
         <v>44082</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5">
         <v>44083</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>44084</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>44085</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>44087</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>44088</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>44089</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>44090</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>44091</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>44092</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>44093</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <v>44094</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>44095</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>44096</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5">
         <v>44097</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
         <v>44098</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <v>44099</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
         <v>44100</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>44101</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5">
         <v>44102</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
         <v>44103</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
         <v>44104</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>44105</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5">
         <v>44106</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5">
         <v>44107</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5">
         <v>44108</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
         <v>44109</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>44110</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>44111</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5">
         <v>44112</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>44113</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5">
         <v>44114</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5">
         <v>44115</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5">
         <v>44116</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
         <v>44117</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5">
         <v>44118</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
         <v>44119</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
         <v>44120</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5">
         <v>44121</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5">
         <v>44122</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5">
         <v>44123</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5">
         <v>44124</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5">
         <v>44125</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5">
         <v>44126</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5">
         <v>44127</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5">
         <v>44128</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5">
         <v>44129</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5">
         <v>44130</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5">
         <v>44131</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5">
         <v>44132</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5">
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5">
         <v>44134</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5">
         <v>44135</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5">
         <v>44136</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5">
         <v>44137</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5">
         <v>44138</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5">
         <v>44139</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5">
         <v>44140</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5">
         <v>44141</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5">
         <v>44142</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5">
         <v>44143</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5">
         <v>44144</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5">
         <v>44145</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5">
         <v>44146</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5">
         <v>44147</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5">
         <v>44148</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5">
         <v>44149</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5">
         <v>44150</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5">
         <v>44151</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5">
         <v>44152</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5">
         <v>44153</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5">
         <v>44154</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5">
         <v>44155</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5">
         <v>44156</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5">
         <v>44157</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5">
         <v>44158</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5">
         <v>44159</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5">
         <v>44160</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5">
         <v>44161</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5">
         <v>44162</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5">
         <v>44163</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5">
         <v>44164</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5">
         <v>44165</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5">
         <v>44166</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5">
         <v>44167</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5">
         <v>44168</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5">
         <v>44169</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5">
         <v>44170</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5">
         <v>44171</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5">
         <v>44172</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5">
         <v>44173</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5">
         <v>44174</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="5">
         <v>44175</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="5">
         <v>44176</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="5">
         <v>44177</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="5">
         <v>44178</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="5">
         <v>44179</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="5">
         <v>44180</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="5">
         <v>44181</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="5">
         <v>44182</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="5">
         <v>44183</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="5">
         <v>44184</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="5">
         <v>44185</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="5">
         <v>44186</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="5">
         <v>44187</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="5">
         <v>44188</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="5">
         <v>44189</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="5">
         <v>44190</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="5">
         <v>44191</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="5">
         <v>44192</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="5">
         <v>44193</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="5">
         <v>44194</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="5">
         <v>44195</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="5">
         <v>44196</v>
       </c>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="5">
         <v>44197</v>
       </c>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="5">
         <v>44198</v>
       </c>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="5">
         <v>44199</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="5">
         <v>44200</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="5">
         <v>44201</v>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="5">
         <v>44202</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="5">
         <v>44203</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="5">
         <v>44204</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="5">
         <v>44205</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="5">
         <v>44206</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="5">
         <v>44207</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="5">
         <v>44208</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="5">
         <v>44209</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="5">
         <v>44210</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="5">
         <v>44211</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="5">
         <v>44212</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="5">
         <v>44213</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="5">
         <v>44214</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="5">
         <v>44215</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="5">
         <v>44216</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="5">
         <v>44217</v>
       </c>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="5">
         <v>44218</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="5">
         <v>44219</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="5">
         <v>44220</v>
       </c>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="5">
         <v>44221</v>
       </c>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="5">
         <v>44222</v>
       </c>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="5">
         <v>44223</v>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="5">
         <v>44224</v>
       </c>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="5">
         <v>44225</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="5">
         <v>44226</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="5">
         <v>44227</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="5">
         <v>44228</v>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="5">
         <v>44229</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="5">
         <v>44230</v>
       </c>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="5">
         <v>44231</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="5">
         <v>44232</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="5">
         <v>44233</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="5">
         <v>44234</v>
       </c>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="5">
         <v>44235</v>
       </c>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="5">
         <v>44236</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="5">
         <v>44237</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="5">
         <v>44238</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="5">
         <v>44239</v>
       </c>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="5">
         <v>44240</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="5">
         <v>44241</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="5">
         <v>44242</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="5">
         <v>44243</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="5">
         <v>44244</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="5">
         <v>44245</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="5">
         <v>44246</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="5">
         <v>44247</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="5">
         <v>44248</v>
       </c>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="5">
         <v>44249</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="5">
         <v>44250</v>
       </c>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="5">
         <v>44251</v>
       </c>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="5">
         <v>44252</v>
       </c>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="5">
         <v>44253</v>
       </c>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="5">
         <v>44254</v>
       </c>
     </row>
-    <row r="182" spans="3:3">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="5">
         <v>44255</v>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="184" spans="3:3">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="5">
         <v>44257</v>
       </c>
     </row>
-    <row r="185" spans="3:3">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="5">
         <v>44258</v>
       </c>
     </row>
-    <row r="186" spans="3:3">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="5">
         <v>44259</v>
       </c>
     </row>
-    <row r="187" spans="3:3">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="5">
         <v>44260</v>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="5">
         <v>44261</v>
       </c>
     </row>
-    <row r="189" spans="3:3">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="5">
         <v>44262</v>
       </c>
     </row>
-    <row r="190" spans="3:3">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="5">
         <v>44263</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="5">
         <v>44264</v>
       </c>
     </row>
-    <row r="192" spans="3:3">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="5">
         <v>44265</v>
       </c>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="5">
         <v>44266</v>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="5">
         <v>44267</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="5">
         <v>44268</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="5">
         <v>44269</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="5">
         <v>44270</v>
       </c>
     </row>
-    <row r="198" spans="3:3">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="5">
         <v>44271</v>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="5">
         <v>44272</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="5">
         <v>44273</v>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="5">
         <v>44274</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="5">
         <v>44275</v>
       </c>
     </row>
-    <row r="203" spans="3:3">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="5">
         <v>44276</v>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="5">
         <v>44277</v>
       </c>
     </row>
-    <row r="205" spans="3:3">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="5">
         <v>44278</v>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="5">
         <v>44279</v>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="5">
         <v>44280</v>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="5">
         <v>44281</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="5">
         <v>44282</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="5">
         <v>44283</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="5">
         <v>44284</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="5">
         <v>44285</v>
       </c>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="5">
         <v>44286</v>
       </c>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="5">
         <v>44287</v>
       </c>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="5">
         <v>44288</v>
       </c>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="5">
         <v>44289</v>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="5">
         <v>44290</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="5">
         <v>44291</v>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="5">
         <v>44292</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="5">
         <v>44293</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="5">
         <v>44294</v>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="5">
         <v>44295</v>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="5">
         <v>44296</v>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="5">
         <v>44297</v>
       </c>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="5">
         <v>44298</v>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="5">
         <v>44299</v>
       </c>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="5">
         <v>44314</v>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="5">
         <v>44315</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="5">
         <v>44316</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="5">
         <v>44317</v>
       </c>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="5">
         <v>44318</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="5">
         <v>44319</v>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="5">
         <v>44320</v>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="5">
         <v>44321</v>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="5">
         <v>44322</v>
       </c>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="5">
         <v>44323</v>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="5">
         <v>44324</v>
       </c>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="5">
         <v>44325</v>
       </c>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="5">
         <v>44326</v>
       </c>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="5">
         <v>44327</v>
       </c>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="5">
         <v>44328</v>
       </c>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="5">
         <v>44329</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="5">
         <v>44330</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="5">
         <v>44331</v>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="5">
         <v>44346</v>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="5">
         <v>44347</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="5">
         <v>44348</v>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="5">
         <v>44349</v>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="5">
         <v>44350</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="5">
         <v>44351</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="5">
         <v>44352</v>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="5">
         <v>44353</v>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="5">
         <v>44354</v>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="5">
         <v>44355</v>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="5">
         <v>44356</v>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="5">
         <v>44357</v>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="5">
         <v>44358</v>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="5">
         <v>44359</v>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="5">
         <v>44360</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="5">
         <v>44361</v>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="5">
         <v>44362</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="5">
         <v>44363</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="5">
         <v>44364</v>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="295" spans="3:3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="296" spans="3:3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="5">
         <v>44377</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="4"/>
     </row>
   </sheetData>
@@ -2795,17 +2947,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038BE5D032C80154D85EF26D93C48163D" ma:contentTypeVersion="6" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d72e267341d8041af80071ef767968cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="80e4378b-39d6-4f25-8a77-bc41c8b557eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947cbb74f10fe9d18150e943b76caea2" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038BE5D032C80154D85EF26D93C48163D" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="1ac1fa039e10012cb5e2f4749f737179">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="80e4378b-39d6-4f25-8a77-bc41c8b557eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13f19d6af2f012bc9b2c8265e157c08e" ns2:_="">
     <xsd:import namespace="80e4378b-39d6-4f25-8a77-bc41c8b557eb"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -2819,6 +2962,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2857,6 +3002,18 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2959,14 +3116,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D69E7496-8663-4F29-ADC9-F7B0E4792EF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D69E7496-8663-4F29-ADC9-F7B0E4792EF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55BFA8ED-EE7B-4DD3-8FCB-B4DE2B8E950D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF59694-DDCB-4FA7-B89B-C4936D62CCDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="80e4378b-39d6-4f25-8a77-bc41c8b557eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{725C2099-30EC-4700-8336-6A5A589CC7F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55BFA8ED-EE7B-4DD3-8FCB-B4DE2B8E950D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>